--- a/REGULAR/OJT/LAURENCIANA, OSCAR.xlsx
+++ b/REGULAR/OJT/LAURENCIANA, OSCAR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA154839-7183-4A3F-9E28-279B817017BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="REGULAR LEAVE" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL LEAVE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'REGULAR LEAVE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -870,6 +869,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -877,12 +882,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1171,7 +1170,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1188,26 +1187,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K244" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K244" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K244" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K244"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1219,26 +1218,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{793D1BCF-D9BE-4F8D-BAAF-F7545AF6CA83}" name="Table13" displayName="Table13" ref="A8:K114" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K114" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K114"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{47B2E609-1144-44EA-A100-FEFD8EFE3D57}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F9B745FD-BFA7-4A24-BFD8-5C2E09F6AC83}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EC91D7BE-7250-41CD-A103-9004068EB820}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C706D666-82D4-4C33-B15D-36F0F5D6DB2D}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AA77D4D3-1051-46DB-A96D-433B715074A9}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{98AAC7CF-09A5-45C4-89DD-ABF2B17F034B}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D1D8FC4B-EA98-4D1F-B185-A2ADD8FAA71D}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3C41E670-65FA-4E78-9DAF-B588D8B50A28}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{162DABEA-BE2A-4447-A2CE-5564EFCA0265}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C0DBB7C9-306A-4096-A435-76C4CEA34862}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{79291FED-68B2-4C7C-B349-5D73ABCCCCE1}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1545,34 +1544,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A187" activePane="bottomLeft"/>
       <selection activeCell="A9" sqref="A9:XFD9"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1592,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1610,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1630,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1639,7 +1638,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1652,7 +1651,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1669,7 +1668,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1713,7 +1712,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>145</v>
+        <v>153.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1723,12 +1722,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>205</v>
+        <v>213.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +1742,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>39965</v>
       </c>
@@ -1763,7 +1762,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>39995</v>
       </c>
@@ -1783,7 +1782,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>40026</v>
       </c>
@@ -1803,7 +1802,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>40057</v>
       </c>
@@ -1823,7 +1822,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>40087</v>
       </c>
@@ -1843,7 +1842,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>40118</v>
       </c>
@@ -1863,7 +1862,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>40148</v>
       </c>
@@ -1883,7 +1882,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>58</v>
       </c>
@@ -1901,7 +1900,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>40179</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>40210</v>
       </c>
@@ -1941,7 +1940,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>40238</v>
       </c>
@@ -1961,7 +1960,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>40269</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>40299</v>
       </c>
@@ -2001,7 +2000,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>40330</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>40360</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>40391</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>40422</v>
       </c>
@@ -2081,7 +2080,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>40452</v>
       </c>
@@ -2101,7 +2100,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>40483</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>59</v>
@@ -2146,7 +2145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>40513</v>
       </c>
@@ -2170,7 +2169,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>63</v>
       </c>
@@ -2188,7 +2187,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>40544</v>
       </c>
@@ -2208,7 +2207,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>40575</v>
       </c>
@@ -2228,7 +2227,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>40603</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>40634</v>
       </c>
@@ -2268,7 +2267,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>40664</v>
       </c>
@@ -2288,7 +2287,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>40695</v>
       </c>
@@ -2308,7 +2307,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>40725</v>
       </c>
@@ -2328,7 +2327,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>40756</v>
       </c>
@@ -2348,7 +2347,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>40787</v>
       </c>
@@ -2368,7 +2367,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>40817</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>40848</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>40878</v>
       </c>
@@ -2432,7 +2431,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>64</v>
       </c>
@@ -2450,7 +2449,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>40909</v>
       </c>
@@ -2470,7 +2469,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>40940</v>
       </c>
@@ -2490,7 +2489,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>40969</v>
       </c>
@@ -2510,7 +2509,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>41000</v>
       </c>
@@ -2530,7 +2529,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>41030</v>
       </c>
@@ -2550,7 +2549,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>41061</v>
       </c>
@@ -2570,7 +2569,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>41091</v>
       </c>
@@ -2590,7 +2589,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>41122</v>
       </c>
@@ -2610,7 +2609,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>41153</v>
       </c>
@@ -2630,7 +2629,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>41183</v>
       </c>
@@ -2650,7 +2649,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>41214</v>
       </c>
@@ -2670,7 +2669,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>41244</v>
       </c>
@@ -2694,7 +2693,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>65</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>41275</v>
       </c>
@@ -2732,7 +2731,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>41306</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>41334</v>
       </c>
@@ -2772,7 +2771,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>41365</v>
       </c>
@@ -2796,7 +2795,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>41395</v>
       </c>
@@ -2816,7 +2815,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>41426</v>
       </c>
@@ -2836,7 +2835,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>41456</v>
       </c>
@@ -2856,7 +2855,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>41487</v>
       </c>
@@ -2876,7 +2875,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>41518</v>
       </c>
@@ -2896,7 +2895,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>41548</v>
       </c>
@@ -2916,7 +2915,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>41579</v>
       </c>
@@ -2936,7 +2935,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>41609</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>67</v>
       </c>
@@ -2978,7 +2977,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>41640</v>
       </c>
@@ -2998,7 +2997,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>41671</v>
       </c>
@@ -3018,7 +3017,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>41699</v>
       </c>
@@ -3038,7 +3037,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>41730</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>41760</v>
       </c>
@@ -3078,7 +3077,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>41791</v>
       </c>
@@ -3098,7 +3097,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>41821</v>
       </c>
@@ -3118,7 +3117,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>41852</v>
       </c>
@@ -3138,7 +3137,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>41883</v>
       </c>
@@ -3158,7 +3157,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>41913</v>
       </c>
@@ -3178,7 +3177,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>41944</v>
       </c>
@@ -3198,7 +3197,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>41974</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>68</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>42005</v>
       </c>
@@ -3260,7 +3259,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>42036</v>
       </c>
@@ -3280,7 +3279,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>42064</v>
       </c>
@@ -3300,7 +3299,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>42095</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>42125</v>
       </c>
@@ -3340,7 +3339,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>42156</v>
       </c>
@@ -3360,7 +3359,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>42186</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>42217</v>
       </c>
@@ -3400,7 +3399,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>42248</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>42278</v>
       </c>
@@ -3440,7 +3439,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>42309</v>
       </c>
@@ -3460,7 +3459,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>42339</v>
       </c>
@@ -3484,7 +3483,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>69</v>
       </c>
@@ -3502,7 +3501,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>42370</v>
       </c>
@@ -3522,7 +3521,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>42401</v>
       </c>
@@ -3542,7 +3541,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>42430</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>42461</v>
       </c>
@@ -3582,7 +3581,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>42491</v>
       </c>
@@ -3602,7 +3601,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>42522</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>42552</v>
       </c>
@@ -3642,7 +3641,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>42583</v>
       </c>
@@ -3662,7 +3661,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>42614</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>42644</v>
       </c>
@@ -3702,7 +3701,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>42675</v>
       </c>
@@ -3722,7 +3721,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>42705</v>
       </c>
@@ -3746,7 +3745,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>70</v>
       </c>
@@ -3764,7 +3763,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>42736</v>
       </c>
@@ -3784,7 +3783,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>42767</v>
       </c>
@@ -3804,7 +3803,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>42795</v>
       </c>
@@ -3824,7 +3823,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>42826</v>
       </c>
@@ -3844,7 +3843,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>42856</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>42887</v>
       </c>
@@ -3884,7 +3883,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>42917</v>
       </c>
@@ -3904,7 +3903,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>42948</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>42979</v>
       </c>
@@ -3944,7 +3943,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>43009</v>
       </c>
@@ -3964,7 +3963,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>43040</v>
       </c>
@@ -3984,7 +3983,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>43070</v>
       </c>
@@ -4008,7 +4007,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4029,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>43101</v>
       </c>
@@ -4050,7 +4049,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>43132</v>
       </c>
@@ -4070,7 +4069,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>43160</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>43191</v>
       </c>
@@ -4110,7 +4109,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>43221</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>43252</v>
       </c>
@@ -4150,7 +4149,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="15"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>43282</v>
       </c>
@@ -4170,7 +4169,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>43313</v>
       </c>
@@ -4190,7 +4189,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>43344</v>
       </c>
@@ -4210,7 +4209,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>43374</v>
       </c>
@@ -4230,7 +4229,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>43405</v>
       </c>
@@ -4250,7 +4249,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>43435</v>
       </c>
@@ -4274,7 +4273,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>45</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>43466</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>43497</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>43525</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>43556</v>
       </c>
@@ -4372,7 +4371,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>43586</v>
       </c>
@@ -4392,7 +4391,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>43617</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>43647</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>43678</v>
       </c>
@@ -4452,7 +4451,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>43709</v>
       </c>
@@ -4472,7 +4471,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>43739</v>
       </c>
@@ -4492,7 +4491,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>43770</v>
       </c>
@@ -4512,7 +4511,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>43800</v>
       </c>
@@ -4536,7 +4535,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>46</v>
       </c>
@@ -4554,7 +4553,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>43831</v>
       </c>
@@ -4574,7 +4573,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>43862</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>43891</v>
       </c>
@@ -4614,7 +4613,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>43922</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>43952</v>
       </c>
@@ -4654,7 +4653,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>43983</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>44013</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>44044</v>
       </c>
@@ -4714,7 +4713,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44075</v>
       </c>
@@ -4734,7 +4733,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>44105</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>44136</v>
       </c>
@@ -4774,7 +4773,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>44166</v>
       </c>
@@ -4798,7 +4797,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
         <v>47</v>
       </c>
@@ -4816,7 +4815,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>44197</v>
       </c>
@@ -4836,7 +4835,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>44228</v>
       </c>
@@ -4856,7 +4855,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>44256</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>44287</v>
       </c>
@@ -4896,7 +4895,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>44317</v>
       </c>
@@ -4916,7 +4915,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>44348</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>44378</v>
       </c>
@@ -4956,7 +4955,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>44409</v>
       </c>
@@ -4976,7 +4975,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>44440</v>
       </c>
@@ -4996,7 +4995,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>44470</v>
       </c>
@@ -5016,7 +5015,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>44501</v>
       </c>
@@ -5036,7 +5035,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>44531</v>
       </c>
@@ -5060,7 +5059,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>48</v>
       </c>
@@ -5078,7 +5077,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>44562</v>
       </c>
@@ -5098,7 +5097,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>44593</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>44621</v>
       </c>
@@ -5138,7 +5137,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>44652</v>
       </c>
@@ -5158,7 +5157,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>44682</v>
       </c>
@@ -5178,7 +5177,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>44713</v>
       </c>
@@ -5198,7 +5197,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>44743</v>
       </c>
@@ -5218,7 +5217,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>44774</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>44805</v>
       </c>
@@ -5258,7 +5257,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>44835</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>44866</v>
       </c>
@@ -5298,7 +5297,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>44896</v>
       </c>
@@ -5322,7 +5321,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>71</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>44927</v>
       </c>
@@ -5360,7 +5359,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>44958</v>
       </c>
@@ -5380,7 +5379,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>44986</v>
       </c>
@@ -5400,7 +5399,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>45017</v>
       </c>
@@ -5420,7 +5419,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>45047</v>
       </c>
@@ -5440,133 +5439,147 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>45078</v>
       </c>
       <c r="B194" s="20"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D194" s="39"/>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
-      <c r="G194" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G194" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>45108</v>
       </c>
       <c r="B195" s="20"/>
-      <c r="C195" s="13"/>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H195" s="39"/>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>45139</v>
       </c>
       <c r="B196" s="20"/>
-      <c r="C196" s="13"/>
+      <c r="C196" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G196" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>45170</v>
       </c>
       <c r="B197" s="20"/>
-      <c r="C197" s="13"/>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D197" s="39"/>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>45200</v>
       </c>
       <c r="B198" s="20"/>
-      <c r="C198" s="13"/>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D198" s="39"/>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H198" s="39"/>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>45231</v>
       </c>
       <c r="B199" s="20"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D199" s="39"/>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>45261</v>
       </c>
       <c r="B200" s="20"/>
-      <c r="C200" s="13"/>
+      <c r="C200" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D200" s="39"/>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G200" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>45292</v>
       </c>
@@ -5584,7 +5597,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>45323</v>
       </c>
@@ -5602,7 +5615,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>45352</v>
       </c>
@@ -5620,7 +5633,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>45383</v>
       </c>
@@ -5638,7 +5651,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>45413</v>
       </c>
@@ -5656,7 +5669,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>45444</v>
       </c>
@@ -5674,7 +5687,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>45474</v>
       </c>
@@ -5692,7 +5705,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>45505</v>
       </c>
@@ -5710,7 +5723,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>45536</v>
       </c>
@@ -5728,7 +5741,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>45566</v>
       </c>
@@ -5746,7 +5759,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>45597</v>
       </c>
@@ -5764,7 +5777,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>45627</v>
       </c>
@@ -5782,7 +5795,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>45658</v>
       </c>
@@ -5800,7 +5813,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>45689</v>
       </c>
@@ -5818,7 +5831,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>45717</v>
       </c>
@@ -5836,7 +5849,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>45748</v>
       </c>
@@ -5854,7 +5867,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>45778</v>
       </c>
@@ -5872,7 +5885,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>45809</v>
       </c>
@@ -5890,7 +5903,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>45839</v>
       </c>
@@ -5908,7 +5921,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>45870</v>
       </c>
@@ -5926,7 +5939,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>45901</v>
       </c>
@@ -5944,7 +5957,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>45931</v>
       </c>
@@ -5962,7 +5975,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>45962</v>
       </c>
@@ -5980,7 +5993,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>45992</v>
       </c>
@@ -5998,7 +6011,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>46023</v>
       </c>
@@ -6016,7 +6029,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>46054</v>
       </c>
@@ -6034,7 +6047,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>46082</v>
       </c>
@@ -6052,7 +6065,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>46113</v>
       </c>
@@ -6070,7 +6083,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>46143</v>
       </c>
@@ -6088,7 +6101,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>46174</v>
       </c>
@@ -6106,7 +6119,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>46204</v>
       </c>
@@ -6124,7 +6137,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>46235</v>
       </c>
@@ -6142,7 +6155,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>46266</v>
       </c>
@@ -6160,7 +6173,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6176,7 +6189,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6192,7 +6205,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6208,7 +6221,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6224,7 +6237,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6240,7 +6253,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6256,7 +6269,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6272,7 +6285,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6288,7 +6301,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -6304,7 +6317,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -6320,7 +6333,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41"/>
       <c r="B244" s="15"/>
       <c r="C244" s="42"/>
@@ -6351,10 +6364,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6377,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D04A10-446F-43AA-A10E-B397CC28D738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6389,22 +6402,22 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6425,7 +6438,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6443,7 +6456,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6463,7 +6476,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6471,7 +6484,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6484,7 +6497,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -6501,7 +6514,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6536,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6560,7 +6573,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6588,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>37382</v>
       </c>
@@ -6595,7 +6608,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>37408</v>
       </c>
@@ -6615,7 +6628,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>37438</v>
       </c>
@@ -6635,7 +6648,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>37469</v>
       </c>
@@ -6655,7 +6668,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>37500</v>
       </c>
@@ -6675,7 +6688,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>37530</v>
       </c>
@@ -6695,7 +6708,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>37561</v>
       </c>
@@ -6715,7 +6728,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>37591</v>
       </c>
@@ -6735,7 +6748,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>52</v>
       </c>
@@ -6753,7 +6766,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>37622</v>
       </c>
@@ -6773,7 +6786,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>37653</v>
       </c>
@@ -6793,7 +6806,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>37681</v>
       </c>
@@ -6813,7 +6826,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>37712</v>
       </c>
@@ -6833,7 +6846,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>37742</v>
       </c>
@@ -6853,7 +6866,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>37773</v>
       </c>
@@ -6873,7 +6886,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>37803</v>
       </c>
@@ -6893,7 +6906,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>37834</v>
       </c>
@@ -6913,7 +6926,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>37865</v>
       </c>
@@ -6933,7 +6946,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>37895</v>
       </c>
@@ -6953,7 +6966,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>37926</v>
       </c>
@@ -6977,7 +6990,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>37956</v>
       </c>
@@ -6997,7 +7010,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>53</v>
       </c>
@@ -7015,7 +7028,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>37987</v>
       </c>
@@ -7035,7 +7048,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>38018</v>
       </c>
@@ -7055,7 +7068,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>38047</v>
       </c>
@@ -7075,7 +7088,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>38078</v>
       </c>
@@ -7095,7 +7108,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>38108</v>
       </c>
@@ -7115,7 +7128,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>38139</v>
       </c>
@@ -7135,7 +7148,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>38169</v>
       </c>
@@ -7155,7 +7168,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>38200</v>
       </c>
@@ -7175,7 +7188,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>38231</v>
       </c>
@@ -7195,7 +7208,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>38261</v>
       </c>
@@ -7215,7 +7228,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>38292</v>
       </c>
@@ -7235,7 +7248,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>38322</v>
       </c>
@@ -7259,7 +7272,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>54</v>
       </c>
@@ -7277,7 +7290,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>38353</v>
       </c>
@@ -7297,7 +7310,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>38384</v>
       </c>
@@ -7317,7 +7330,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>38412</v>
       </c>
@@ -7337,7 +7350,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>38443</v>
       </c>
@@ -7357,7 +7370,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>38473</v>
       </c>
@@ -7377,7 +7390,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>38504</v>
       </c>
@@ -7397,7 +7410,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>38534</v>
       </c>
@@ -7417,7 +7430,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>38565</v>
       </c>
@@ -7437,7 +7450,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>38596</v>
       </c>
@@ -7457,7 +7470,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>38626</v>
       </c>
@@ -7477,7 +7490,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>38657</v>
       </c>
@@ -7497,7 +7510,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>38687</v>
       </c>
@@ -7521,7 +7534,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>55</v>
       </c>
@@ -7539,7 +7552,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>38718</v>
       </c>
@@ -7559,7 +7572,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>38749</v>
       </c>
@@ -7579,7 +7592,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>38777</v>
       </c>
@@ -7599,7 +7612,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>38808</v>
       </c>
@@ -7619,7 +7632,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>38838</v>
       </c>
@@ -7639,7 +7652,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>38869</v>
       </c>
@@ -7659,7 +7672,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>38899</v>
       </c>
@@ -7679,7 +7692,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>38930</v>
       </c>
@@ -7699,7 +7712,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>38961</v>
       </c>
@@ -7719,7 +7732,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>38991</v>
       </c>
@@ -7739,7 +7752,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>39022</v>
       </c>
@@ -7759,7 +7772,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>39052</v>
       </c>
@@ -7783,7 +7796,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>56</v>
       </c>
@@ -7801,7 +7814,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>39083</v>
       </c>
@@ -7821,7 +7834,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>39114</v>
       </c>
@@ -7841,7 +7854,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>39142</v>
       </c>
@@ -7861,7 +7874,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>39173</v>
       </c>
@@ -7881,7 +7894,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>39203</v>
       </c>
@@ -7901,7 +7914,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>39234</v>
       </c>
@@ -7921,7 +7934,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>39264</v>
       </c>
@@ -7941,7 +7954,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>39295</v>
       </c>
@@ -7961,7 +7974,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>39326</v>
       </c>
@@ -7981,7 +7994,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>39356</v>
       </c>
@@ -8001,7 +8014,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>39387</v>
       </c>
@@ -8021,7 +8034,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>39417</v>
       </c>
@@ -8045,7 +8058,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>50</v>
       </c>
@@ -8063,7 +8076,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>39448</v>
       </c>
@@ -8083,7 +8096,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>39479</v>
       </c>
@@ -8103,7 +8116,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>39508</v>
       </c>
@@ -8123,7 +8136,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>39539</v>
       </c>
@@ -8143,7 +8156,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>39569</v>
       </c>
@@ -8163,7 +8176,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>39600</v>
       </c>
@@ -8183,7 +8196,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>39630</v>
       </c>
@@ -8203,7 +8216,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>39661</v>
       </c>
@@ -8223,7 +8236,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>39692</v>
       </c>
@@ -8243,7 +8256,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>39722</v>
       </c>
@@ -8263,7 +8276,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>39753</v>
       </c>
@@ -8283,7 +8296,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>39783</v>
       </c>
@@ -8307,7 +8320,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>57</v>
       </c>
@@ -8325,7 +8338,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>39814</v>
       </c>
@@ -8345,7 +8358,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>39845</v>
       </c>
@@ -8365,7 +8378,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>39873</v>
       </c>
@@ -8385,7 +8398,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>39904</v>
       </c>
@@ -8405,7 +8418,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>39934</v>
       </c>
@@ -8425,7 +8438,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8441,7 +8454,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8457,7 +8470,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8473,7 +8486,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8489,7 +8502,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8505,7 +8518,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8521,7 +8534,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8537,7 +8550,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8553,7 +8566,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8569,7 +8582,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8585,7 +8598,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8601,7 +8614,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="15"/>
       <c r="C114" s="42"/>
@@ -8619,23 +8632,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{8E5B75E2-871A-4F34-BD04-14A4722B498C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{C01731E1-BC4C-44A6-99B8-1FA0CCB223F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8658,28 +8671,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8692,7 +8705,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8721,7 +8734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -8741,17 +8754,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
@@ -8775,10 +8788,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('REGULAR LEAVE'!E9,'REGULAR LEAVE'!I9)</f>
-        <v>350</v>
+        <v>367.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8806,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8832,7 +8845,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8858,7 +8871,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8884,7 +8897,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8910,7 +8923,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8936,7 +8949,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8962,7 +8975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8988,7 +9001,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9008,7 +9021,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9028,7 +9041,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9048,7 +9061,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9069,7 +9082,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9090,7 +9103,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9111,7 +9124,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9132,7 +9145,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9153,7 +9166,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9174,7 +9187,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9195,7 +9208,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9216,7 +9229,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9237,7 +9250,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9258,7 +9271,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9279,7 +9292,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9300,7 +9313,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9321,7 +9334,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9342,7 +9355,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9363,7 +9376,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9384,7 +9397,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9405,7 +9418,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9426,7 +9439,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9447,7 +9460,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9468,7 +9481,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9477,7 +9490,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9486,7 +9499,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9495,7 +9508,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9504,7 +9517,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9513,7 +9526,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9522,7 +9535,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9531,7 +9544,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9540,7 +9553,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9549,7 +9562,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9558,7 +9571,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9567,7 +9580,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9576,7 +9589,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9585,7 +9598,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9594,7 +9607,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9603,7 +9616,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9612,7 +9625,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9621,7 +9634,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9630,7 +9643,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9639,7 +9652,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9648,7 +9661,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9657,7 +9670,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9666,7 +9679,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9675,7 +9688,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9684,7 +9697,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9693,7 +9706,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9702,7 +9715,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9711,7 +9724,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9720,7 +9733,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9729,7 +9742,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
